--- a/src/services/excel/data.xlsx
+++ b/src/services/excel/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\carlosdiaz\Backend_Microservicios\services\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdiaz/Desktop/Backend_Escuela/src/services/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502C8D77-8F08-4C6B-A33E-0817EDFA9CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FD3F1-060A-1043-BB30-72CAA6F63008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD6C983E-E0E1-FA44-AD2A-D6E2DEB06B64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AD6C983E-E0E1-FA44-AD2A-D6E2DEB06B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Department</t>
   </si>
@@ -195,6 +195,27 @@
   </si>
   <si>
     <t>13:52</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>14:11</t>
   </si>
 </sst>
 </file>
@@ -546,15 +567,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900596C-DC5A-B64D-8DB2-C09881F72CA3}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -615,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -641,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -667,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -680,12 +705,6 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
@@ -693,7 +712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -713,7 +732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -729,9 +748,6 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
@@ -739,7 +755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -758,14 +774,11 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -791,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -804,9 +817,6 @@
       <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" t="s">
         <v>48</v>
       </c>
@@ -817,7 +827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -839,8 +849,83 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
-        <v>45</v>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
